--- a/teaching/traditional_assets/database/data/iceland/iceland_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/iceland/iceland_insurance_prop_cas.xlsx
@@ -591,121 +591,118 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0866</v>
+        <v>0.0495</v>
       </c>
       <c r="E2">
-        <v>0.187</v>
+        <v>-0.21</v>
       </c>
       <c r="G2">
-        <v>0.1053135471517472</v>
+        <v>0.1440173253925284</v>
       </c>
       <c r="H2">
-        <v>0.1053135471517472</v>
+        <v>0.1440173253925284</v>
       </c>
       <c r="I2">
-        <v>0.1070037844519337</v>
+        <v>0.04206821873308067</v>
       </c>
       <c r="J2">
-        <v>0.09252961182294443</v>
+        <v>0.04130698429886302</v>
       </c>
       <c r="K2">
-        <v>19.4</v>
+        <v>5.16</v>
       </c>
       <c r="L2">
-        <v>0.09286740067017711</v>
+        <v>0.02793719545208447</v>
       </c>
       <c r="M2">
-        <v>21.16</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.1213302752293578</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.090721649484536</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.09461009174311927</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.8505154639175259</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>4.66</v>
-      </c>
-      <c r="T2">
-        <v>0.220226843100189</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>15.9</v>
+        <v>4.76</v>
       </c>
       <c r="V2">
-        <v>0.0911697247706422</v>
+        <v>0.02218080149114632</v>
       </c>
       <c r="W2">
-        <v>0.1467473524962178</v>
+        <v>0.04414029084687767</v>
       </c>
       <c r="X2">
-        <v>0.05478088409093987</v>
+        <v>0.04917661515342803</v>
       </c>
       <c r="Y2">
-        <v>0.09196646840527797</v>
+        <v>-0.005036324306550356</v>
       </c>
       <c r="Z2">
-        <v>1.371774115780855</v>
+        <v>1.413159908186687</v>
       </c>
       <c r="AA2">
-        <v>0.1269297264419653</v>
+        <v>0.05837337413925019</v>
       </c>
       <c r="AB2">
-        <v>0.05144936004582811</v>
+        <v>0.04610843143785517</v>
       </c>
       <c r="AC2">
-        <v>0.0754803663961372</v>
+        <v>0.01226494270139502</v>
       </c>
       <c r="AD2">
-        <v>29.7</v>
+        <v>26.6</v>
       </c>
       <c r="AE2">
-        <v>8.084547139955278</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>37.78454713995528</v>
+        <v>26.6</v>
       </c>
       <c r="AG2">
-        <v>21.88454713995528</v>
+        <v>21.84</v>
       </c>
       <c r="AH2">
-        <v>0.1780739815846857</v>
+        <v>0.1102819237147595</v>
       </c>
       <c r="AI2">
-        <v>0.2442684019740422</v>
+        <v>0.1953010279001469</v>
       </c>
       <c r="AJ2">
-        <v>0.1114939890013405</v>
+        <v>0.09237015733378448</v>
       </c>
       <c r="AK2">
-        <v>0.1576872035896484</v>
+        <v>0.1661594643944005</v>
       </c>
       <c r="AL2">
-        <v>2.17</v>
+        <v>5.25</v>
       </c>
       <c r="AM2">
-        <v>2.17</v>
+        <v>5.25</v>
       </c>
       <c r="AN2">
-        <v>1.081179468511103</v>
+        <v>2.703252032520326</v>
       </c>
       <c r="AO2">
-        <v>10.46082949308756</v>
+        <v>1.48</v>
       </c>
       <c r="AP2">
-        <v>0.7966708096088563</v>
+        <v>2.219512195121951</v>
       </c>
       <c r="AQ2">
-        <v>10.46082949308756</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +722,118 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0866</v>
+        <v>0.0495</v>
       </c>
       <c r="E3">
-        <v>0.187</v>
+        <v>-0.21</v>
       </c>
       <c r="G3">
-        <v>0.1053135471517472</v>
+        <v>0.1440173253925284</v>
       </c>
       <c r="H3">
-        <v>0.1053135471517472</v>
+        <v>0.1440173253925284</v>
       </c>
       <c r="I3">
-        <v>0.1070037844519337</v>
+        <v>0.04206821873308067</v>
       </c>
       <c r="J3">
-        <v>0.09252961182294443</v>
+        <v>0.04130698429886302</v>
       </c>
       <c r="K3">
-        <v>19.4</v>
+        <v>5.16</v>
       </c>
       <c r="L3">
-        <v>0.09286740067017711</v>
+        <v>0.02793719545208447</v>
       </c>
       <c r="M3">
-        <v>21.16</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.1213302752293578</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>1.090721649484536</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>16.5</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.09461009174311927</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.8505154639175259</v>
+        <v>-0</v>
       </c>
       <c r="S3">
-        <v>4.66</v>
-      </c>
-      <c r="T3">
-        <v>0.220226843100189</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>15.9</v>
+        <v>4.76</v>
       </c>
       <c r="V3">
-        <v>0.0911697247706422</v>
+        <v>0.02218080149114632</v>
       </c>
       <c r="W3">
-        <v>0.1467473524962178</v>
+        <v>0.04414029084687767</v>
       </c>
       <c r="X3">
-        <v>0.05478088409093987</v>
+        <v>0.04917661515342803</v>
       </c>
       <c r="Y3">
-        <v>0.09196646840527797</v>
+        <v>-0.005036324306550356</v>
       </c>
       <c r="Z3">
-        <v>1.371774115780855</v>
+        <v>1.413159908186687</v>
       </c>
       <c r="AA3">
-        <v>0.1269297264419653</v>
+        <v>0.05837337413925019</v>
       </c>
       <c r="AB3">
-        <v>0.05144936004582811</v>
+        <v>0.04610843143785517</v>
       </c>
       <c r="AC3">
-        <v>0.0754803663961372</v>
+        <v>0.01226494270139502</v>
       </c>
       <c r="AD3">
-        <v>29.7</v>
+        <v>26.6</v>
       </c>
       <c r="AE3">
-        <v>8.084547139955278</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>37.78454713995528</v>
+        <v>26.6</v>
       </c>
       <c r="AG3">
-        <v>21.88454713995528</v>
+        <v>21.84</v>
       </c>
       <c r="AH3">
-        <v>0.1780739815846857</v>
+        <v>0.1102819237147595</v>
       </c>
       <c r="AI3">
-        <v>0.2442684019740422</v>
+        <v>0.1953010279001469</v>
       </c>
       <c r="AJ3">
-        <v>0.1114939890013405</v>
+        <v>0.09237015733378448</v>
       </c>
       <c r="AK3">
-        <v>0.1576872035896484</v>
+        <v>0.1661594643944005</v>
       </c>
       <c r="AL3">
-        <v>2.17</v>
+        <v>5.25</v>
       </c>
       <c r="AM3">
-        <v>2.17</v>
+        <v>5.25</v>
       </c>
       <c r="AN3">
-        <v>1.081179468511103</v>
+        <v>2.703252032520326</v>
       </c>
       <c r="AO3">
-        <v>10.46082949308756</v>
+        <v>1.48</v>
       </c>
       <c r="AP3">
-        <v>0.7966708096088563</v>
+        <v>2.219512195121951</v>
       </c>
       <c r="AQ3">
-        <v>10.46082949308756</v>
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>
